--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1082603.532093162</v>
+        <v>-1085464.345885455</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>52.01350006850049</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015063</v>
+        <v>64.95906588992887</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>116.9725659584295</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30.43797714723813</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>33.48868131246055</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>46.67820380331589</v>
+        <v>124.6302942222967</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>232.0107229828401</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15.49946554704853</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>152.5659920079902</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>178.4305391624474</v>
+        <v>105.401054791757</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>82.17847904401093</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.7416790765836</v>
+        <v>11.74167907658358</v>
       </c>
       <c r="H8" t="n">
-        <v>238.4031006485783</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177533</v>
+        <v>127.8724504177535</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,7 +1224,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4381829241309</v>
+        <v>16.56503861959198</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858444</v>
+        <v>136.2924232858445</v>
       </c>
       <c r="T9" t="n">
-        <v>73.61175033014621</v>
+        <v>192.4848946346715</v>
       </c>
       <c r="U9" t="n">
         <v>225.8160311441933</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>106.2454151393345</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.0251168634279</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>105.4699075169637</v>
       </c>
       <c r="S10" t="n">
         <v>196.1788263911949</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>166.1063331865073</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,10 +1370,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>16.77337404802748</v>
       </c>
       <c r="S13" t="n">
-        <v>119.6255281319601</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892458</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406033</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520954</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>64.36993339924416</v>
       </c>
       <c r="D19" t="n">
-        <v>36.86080948088015</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710069</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>73.22341869628478</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>112.0357928422981</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.3722917337063</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576156</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>85.71023095289448</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352489</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>403.9460998429522</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>403.9460998429522</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="D2" t="n">
-        <v>403.9460998429522</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E2" t="n">
-        <v>403.9460998429522</v>
+        <v>203.1836613464093</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429522</v>
+        <v>203.1836613464093</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429522</v>
+        <v>203.1836613464093</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
@@ -4328,22 +4328,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030612</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991325</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.514968335842</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4364,16 +4364,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>788.477863438847</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>522.1002068716689</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>403.9460998429522</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y2" t="n">
-        <v>403.9460998429522</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>394.7584874425334</v>
+        <v>357.6145548405477</v>
       </c>
       <c r="C3" t="n">
-        <v>394.7584874425334</v>
+        <v>326.869123378691</v>
       </c>
       <c r="D3" t="n">
-        <v>245.8240777812821</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>245.8240777812821</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>99.28951980816711</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>99.28951980816711</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749989</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4410,22 +4410,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957466</v>
+        <v>141.1068094710483</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302314</v>
+        <v>287.851233131345</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>478.4519222278689</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4437,22 +4437,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374626</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>629.9105956742761</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>394.7584874425334</v>
+        <v>819.7034117742821</v>
       </c>
       <c r="W3" t="n">
-        <v>394.7584874425334</v>
+        <v>565.4660550460806</v>
       </c>
       <c r="X3" t="n">
-        <v>394.7584874425334</v>
+        <v>357.6145548405477</v>
       </c>
       <c r="Y3" t="n">
-        <v>394.7584874425334</v>
+        <v>357.6145548405477</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>537.6274924209796</v>
+        <v>478.03687044329</v>
       </c>
       <c r="C4" t="n">
-        <v>537.6274924209796</v>
+        <v>309.1006875153831</v>
       </c>
       <c r="D4" t="n">
-        <v>490.4777916095494</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="E4" t="n">
-        <v>490.4777916095494</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F4" t="n">
-        <v>343.5878441116391</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4492,16 +4492,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551012</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.182233022705</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512193</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2759572512193</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512193</v>
+        <v>659.6853352735297</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2759572512193</v>
+        <v>659.6853352735297</v>
       </c>
       <c r="W4" t="n">
-        <v>719.2759572512193</v>
+        <v>659.6853352735297</v>
       </c>
       <c r="X4" t="n">
-        <v>719.2759572512193</v>
+        <v>659.6853352735297</v>
       </c>
       <c r="Y4" t="n">
-        <v>719.2759572512193</v>
+        <v>659.6853352735297</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>534.7928453799753</v>
+        <v>300.438579740743</v>
       </c>
       <c r="C5" t="n">
-        <v>534.7928453799753</v>
+        <v>300.438579740743</v>
       </c>
       <c r="D5" t="n">
-        <v>534.7928453799753</v>
+        <v>300.438579740743</v>
       </c>
       <c r="E5" t="n">
-        <v>534.7928453799753</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F5" t="n">
-        <v>268.4151888127974</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>255.4513760393529</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4598,19 +4598,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>801.1705019471533</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>801.1705019471533</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W5" t="n">
-        <v>801.1705019471533</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X5" t="n">
-        <v>801.1705019471533</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="Y5" t="n">
-        <v>801.1705019471533</v>
+        <v>300.438579740743</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283.7718560684459</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="C6" t="n">
-        <v>283.7718560684459</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>283.7718560684459</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>283.7718560684459</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>137.2372980953309</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2372980953309</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>36.75313620522002</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>478.4519222278689</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166544</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U6" t="n">
-        <v>659.7474918534679</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="V6" t="n">
-        <v>659.7474918534679</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="W6" t="n">
-        <v>659.7474918534679</v>
+        <v>629.9105956742759</v>
       </c>
       <c r="X6" t="n">
-        <v>659.7474918534679</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="Y6" t="n">
-        <v>451.9871930885139</v>
+        <v>475.8035330399423</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>619.9381639592817</v>
+        <v>336.9232408259378</v>
       </c>
       <c r="C7" t="n">
-        <v>619.9381639592817</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="D7" t="n">
-        <v>469.821524546946</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="E7" t="n">
-        <v>321.9084309645528</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4732,13 +4732,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>874.6226521651686</v>
+        <v>819.597279929842</v>
       </c>
       <c r="T7" t="n">
-        <v>874.6226521651686</v>
+        <v>819.597279929842</v>
       </c>
       <c r="U7" t="n">
-        <v>874.6226521651686</v>
+        <v>819.597279929842</v>
       </c>
       <c r="V7" t="n">
-        <v>619.9381639592817</v>
+        <v>564.9127917239551</v>
       </c>
       <c r="W7" t="n">
-        <v>619.9381639592817</v>
+        <v>564.9127917239551</v>
       </c>
       <c r="X7" t="n">
-        <v>619.9381639592817</v>
+        <v>336.9232408259378</v>
       </c>
       <c r="Y7" t="n">
-        <v>619.9381639592817</v>
+        <v>336.9232408259378</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1823.190269998712</v>
+        <v>892.3847009324741</v>
       </c>
       <c r="C8" t="n">
-        <v>1454.2277530583</v>
+        <v>809.3761362415539</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.96205445155</v>
+        <v>451.1104376348035</v>
       </c>
       <c r="E8" t="n">
-        <v>710.1738018533053</v>
+        <v>65.32218503655926</v>
       </c>
       <c r="F8" t="n">
-        <v>703.2283011041019</v>
+        <v>58.37668428735579</v>
       </c>
       <c r="G8" t="n">
-        <v>287.3276151681588</v>
+        <v>46.51640239181683</v>
       </c>
       <c r="H8" t="n">
-        <v>46.51640239181711</v>
+        <v>46.51640239181683</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181711</v>
+        <v>46.51640239181683</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229171</v>
+        <v>166.4989367229159</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677512</v>
+        <v>397.0601716677486</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937608</v>
+        <v>719.9935330937562</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721582</v>
+        <v>1110.988557721575</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999427</v>
+        <v>1512.924098999418</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830564</v>
+        <v>1879.125171830554</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271732</v>
+        <v>2157.16831427172</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257593</v>
+        <v>2317.79438825758</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590855</v>
+        <v>2325.820119590841</v>
       </c>
       <c r="S8" t="n">
-        <v>2196.656028259792</v>
+        <v>2196.656028259777</v>
       </c>
       <c r="T8" t="n">
-        <v>2196.656028259792</v>
+        <v>1987.052678512936</v>
       </c>
       <c r="U8" t="n">
-        <v>2196.656028259792</v>
+        <v>1987.052678512936</v>
       </c>
       <c r="V8" t="n">
-        <v>2196.656028259792</v>
+        <v>1655.989791169366</v>
       </c>
       <c r="W8" t="n">
-        <v>2196.656028259792</v>
+        <v>1655.989791169366</v>
       </c>
       <c r="X8" t="n">
-        <v>1823.190269998712</v>
+        <v>1282.524032908286</v>
       </c>
       <c r="Y8" t="n">
-        <v>1823.190269998712</v>
+        <v>892.3847009324741</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>812.4820996906759</v>
+        <v>692.4082165547777</v>
       </c>
       <c r="C9" t="n">
-        <v>638.0290704095489</v>
+        <v>517.9551872736507</v>
       </c>
       <c r="D9" t="n">
-        <v>489.0946607482977</v>
+        <v>369.0207776123995</v>
       </c>
       <c r="E9" t="n">
-        <v>329.8572057428422</v>
+        <v>209.783322606944</v>
       </c>
       <c r="F9" t="n">
-        <v>183.3226477697272</v>
+        <v>63.24876463382893</v>
       </c>
       <c r="G9" t="n">
-        <v>46.51640239181711</v>
+        <v>46.51640239181683</v>
       </c>
       <c r="H9" t="n">
-        <v>46.51640239181711</v>
+        <v>46.51640239181683</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181711</v>
+        <v>46.51640239181683</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091978003</v>
+        <v>99.15933091977922</v>
       </c>
       <c r="K9" t="n">
-        <v>267.2893053412838</v>
+        <v>529.1098899837348</v>
       </c>
       <c r="L9" t="n">
-        <v>539.6833456336991</v>
+        <v>801.5039302761488</v>
       </c>
       <c r="M9" t="n">
-        <v>876.9112108303642</v>
+        <v>1138.731795472812</v>
       </c>
       <c r="N9" t="n">
-        <v>1237.473139081702</v>
+        <v>1499.293723724149</v>
       </c>
       <c r="O9" t="n">
-        <v>1545.097066742591</v>
+        <v>1806.917651385036</v>
       </c>
       <c r="P9" t="n">
-        <v>2015.643459247554</v>
+        <v>2223.619974106031</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590855</v>
+        <v>2325.820119590841</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590855</v>
+        <v>2325.820119590841</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.15100516071</v>
+        <v>2188.151005160696</v>
       </c>
       <c r="T9" t="n">
-        <v>2113.795701796926</v>
+        <v>1993.721818661028</v>
       </c>
       <c r="U9" t="n">
-        <v>1885.698700641175</v>
+        <v>1765.624817505277</v>
       </c>
       <c r="V9" t="n">
-        <v>1650.546592409432</v>
+        <v>1530.472709273534</v>
       </c>
       <c r="W9" t="n">
-        <v>1396.309235681231</v>
+        <v>1276.235352545332</v>
       </c>
       <c r="X9" t="n">
-        <v>1188.457735475698</v>
+        <v>1068.3838523398</v>
       </c>
       <c r="Y9" t="n">
-        <v>980.6974367107439</v>
+        <v>860.6235535748458</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>622.4081459469713</v>
+        <v>46.51640239181683</v>
       </c>
       <c r="C10" t="n">
-        <v>453.4719630190644</v>
+        <v>46.51640239181683</v>
       </c>
       <c r="D10" t="n">
-        <v>303.3553236067287</v>
+        <v>46.51640239181683</v>
       </c>
       <c r="E10" t="n">
-        <v>196.0367224558858</v>
+        <v>46.51640239181683</v>
       </c>
       <c r="F10" t="n">
-        <v>196.0367224558858</v>
+        <v>46.51640239181683</v>
       </c>
       <c r="G10" t="n">
-        <v>196.0367224558858</v>
+        <v>46.51640239181683</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181711</v>
+        <v>46.51640239181683</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181711</v>
+        <v>46.51640239181683</v>
       </c>
       <c r="J10" t="n">
-        <v>65.895408019096</v>
+        <v>65.89540801909538</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736028</v>
+        <v>227.5779039736016</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632632</v>
+        <v>490.0022680632613</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794073</v>
+        <v>777.0810884794047</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620622</v>
+        <v>1062.768432620619</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257119</v>
+        <v>1310.630639257115</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325121</v>
+        <v>1499.198894325117</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718235</v>
+        <v>1546.318699718231</v>
       </c>
       <c r="R10" t="n">
-        <v>1546.318699718235</v>
+        <v>1439.783439600086</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.158269020059</v>
+        <v>1241.623008901909</v>
       </c>
       <c r="T10" t="n">
-        <v>1348.158269020059</v>
+        <v>1241.623008901909</v>
       </c>
       <c r="U10" t="n">
-        <v>1348.158269020059</v>
+        <v>952.4998774061909</v>
       </c>
       <c r="V10" t="n">
-        <v>1093.473780814172</v>
+        <v>784.7157024703249</v>
       </c>
       <c r="W10" t="n">
-        <v>804.0566107772111</v>
+        <v>495.2985324333642</v>
       </c>
       <c r="X10" t="n">
-        <v>804.0566107772111</v>
+        <v>267.3089815353469</v>
       </c>
       <c r="Y10" t="n">
-        <v>804.0566107772111</v>
+        <v>46.51640239181683</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2430.020281511546</v>
       </c>
       <c r="S13" t="n">
-        <v>2259.083513032703</v>
+        <v>2247.16544716645</v>
       </c>
       <c r="T13" t="n">
-        <v>2039.482048055644</v>
+        <v>2247.16544716645</v>
       </c>
       <c r="U13" t="n">
-        <v>1750.40682139984</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V13" t="n">
-        <v>1495.722333193953</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W13" t="n">
-        <v>1206.305163156993</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,19 +5270,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216015</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238956</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340306</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5507,31 +5507,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>985.7836617409686</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>816.8474788130617</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832662</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855603</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855603</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1905.631426649716</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.214256612756</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1388.224705714738</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.432126571208</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5744,46 +5744,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5838,19 +5838,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6075,19 +6075,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>430.7826650753331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,16 +7117,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,13 +7591,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
@@ -7606,10 +7606,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7628,16 +7628,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7649,16 +7649,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7789,10 +7789,10 @@
         <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.78351343583191</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127281</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544051</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415548</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.3429583777515</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>45.78351343583194</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>51.53815565544051</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>245.438521409946</v>
+        <v>191.0505721332115</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864742</v>
+        <v>27.38164655864777</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>315.3834815114782</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>329.9168700037613</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776174</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590676</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>252.7585347200395</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -22674,7 +22674,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>49.60187266209421</v>
       </c>
       <c r="S13" t="n">
-        <v>61.40075786968454</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>125.5054897610413</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>102.8768876993837</v>
       </c>
       <c r="D19" t="n">
-        <v>111.7546635373322</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>152.4862366927524</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>34.39816980427105</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>139.9994244361427</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26326,31 +26326,31 @@
         <v>201786.6499225015</v>
       </c>
       <c r="G2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="H2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="I2" t="n">
         <v>201786.6499225015</v>
-      </c>
-      <c r="H2" t="n">
-        <v>201786.6499225015</v>
-      </c>
-      <c r="I2" t="n">
-        <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
         <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228513015</v>
+        <v>331437.522851298</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424082</v>
+        <v>563905.7843424113</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911406</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.1433620129</v>
+        <v>99845.14336201198</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569549</v>
+        <v>147342.6769569557</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.985023970675558e-11</v>
+        <v>6.854140243878395e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>252122.0652631775</v>
       </c>
       <c r="D4" t="n">
-        <v>158321.5536878348</v>
+        <v>158321.5536878358</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="H4" t="n">
+        <v>11776.97621680585</v>
+      </c>
+      <c r="I4" t="n">
         <v>11776.97621680583</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989931</v>
       </c>
       <c r="M4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989931</v>
       </c>
       <c r="N4" t="n">
         <v>19767.83547989931</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.8354798993</v>
       </c>
       <c r="P4" t="n">
         <v>19767.83547989932</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543609</v>
+        <v>88290.7954654358</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-743796.2962271776</v>
+        <v>-744156.3792428952</v>
       </c>
       <c r="C6" t="n">
-        <v>-109909.4260013728</v>
+        <v>-109909.4260013729</v>
       </c>
       <c r="D6" t="n">
-        <v>-372789.4295385017</v>
+        <v>-372789.4295384989</v>
       </c>
       <c r="E6" t="n">
-        <v>-475018.6404606196</v>
+        <v>-475053.3783860584</v>
       </c>
       <c r="F6" t="n">
-        <v>88887.14388178858</v>
+        <v>88852.40595635284</v>
       </c>
       <c r="G6" t="n">
-        <v>88887.14388178861</v>
+        <v>88852.4059563531</v>
       </c>
       <c r="H6" t="n">
-        <v>88887.14388178858</v>
+        <v>88852.40595635276</v>
       </c>
       <c r="I6" t="n">
-        <v>88887.14388178864</v>
+        <v>88852.40595635283</v>
       </c>
       <c r="J6" t="n">
-        <v>19887.98946267448</v>
+        <v>19853.25153723879</v>
       </c>
       <c r="K6" t="n">
-        <v>88887.14388178856</v>
+        <v>88852.40595635283</v>
       </c>
       <c r="L6" t="n">
-        <v>-17516.65222975641</v>
+        <v>-17516.65222975546</v>
       </c>
       <c r="M6" t="n">
-        <v>-65014.18582469864</v>
+        <v>-65014.18582469923</v>
       </c>
       <c r="N6" t="n">
+        <v>82328.49113225623</v>
+      </c>
+      <c r="O6" t="n">
         <v>82328.49113225617</v>
       </c>
-      <c r="O6" t="n">
-        <v>82328.49113225628</v>
-      </c>
       <c r="P6" t="n">
-        <v>82328.49113225614</v>
+        <v>82328.49113225617</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,16 +26713,16 @@
         <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896827</v>
+        <v>885.8132865896799</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977139</v>
+        <v>581.4550298977103</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.481279963344447e-14</v>
+        <v>8.567675304847994e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202044</v>
+        <v>271.7582728202016</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519911</v>
+        <v>482.1622137519938</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962077</v>
+        <v>317.7411498962042</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019345</v>
+        <v>591.2532582019378</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.741149896208</v>
+        <v>317.7411498962042</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019345</v>
+        <v>591.2532582019378</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962077</v>
+        <v>317.7411498962042</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019345</v>
+        <v>591.2532582019378</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>49.88941025952931</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>249.2345667393391</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>142.2705218410776</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>65.9906389587492</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>101.9372692148965</v>
+        <v>23.98517879591569</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>82.1829096464279</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27670,19 +27670,19 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>150.2860898188525</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>28.42233845445707</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>53.20699319548723</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>26.28862508114634</v>
+        <v>99.3181094518367</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>283.0944127269966</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>64.60201173337344</v>
+        <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411814965</v>
+        <v>73.18818411815005</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493722</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>118.873144304539</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696362</v>
+        <v>93.83392671696367</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906593</v>
+        <v>23.79630926906613</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>118.8731443045252</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>40.18854750723467</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413784</v>
+        <v>107.4132560413786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169634</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627544</v>
+        <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2319001807608</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>86.0313101373207</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-5.77553963785772e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>7.07318341828168e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.142369289011372e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29986,10 +29986,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31276,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31312,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31361,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31379,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31437,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31458,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551485</v>
+        <v>3.561058438551474</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381541</v>
+        <v>36.46968973381529</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522563</v>
+        <v>137.2877054522559</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490094</v>
+        <v>302.2403836490085</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528939</v>
+        <v>452.9799873528925</v>
       </c>
       <c r="L8" t="n">
-        <v>561.961729541714</v>
+        <v>561.9617295417123</v>
       </c>
       <c r="M8" t="n">
-        <v>625.290702548304</v>
+        <v>625.2907025483021</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368384</v>
+        <v>635.4085598368365</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884921</v>
+        <v>599.9982849884902</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867521</v>
+        <v>512.0846547867505</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.554249456127</v>
+        <v>384.5542494561258</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406599</v>
+        <v>223.6923371406592</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849206</v>
+        <v>81.1476191684918</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475914</v>
+        <v>15.58853331475909</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841188</v>
+        <v>0.2848846750841179</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079695</v>
+        <v>1.905334239079689</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953285</v>
+        <v>18.40151751953279</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234915</v>
+        <v>65.60032358234895</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474373</v>
+        <v>180.0123019474368</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657769</v>
+        <v>307.6696959657759</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247382</v>
+        <v>413.6998750247369</v>
       </c>
       <c r="M9" t="n">
-        <v>482.768241191377</v>
+        <v>482.7682411913755</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139773</v>
+        <v>495.5456800139758</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059482</v>
+        <v>453.3274845059469</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730341</v>
+        <v>363.8352723730329</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726993</v>
+        <v>243.2142442726986</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053165</v>
+        <v>118.2978574053162</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799343</v>
+        <v>35.39074781799332</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150171</v>
+        <v>7.679834060150147</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815589</v>
+        <v>0.1253509367815585</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.5973682217191</v>
+        <v>1.597368221719095</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401164</v>
+        <v>14.2020556440116</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587985</v>
+        <v>48.0372188858797</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755403</v>
+        <v>112.93393327554</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051826</v>
+        <v>185.5851443051821</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817651</v>
+        <v>237.4850899817644</v>
       </c>
       <c r="M10" t="n">
-        <v>250.394729519113</v>
+        <v>250.3947295191122</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108875</v>
+        <v>244.4409025108867</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753506</v>
+        <v>225.78073737535</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522808</v>
+        <v>193.1944256522803</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750421</v>
+        <v>133.7578062750417</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020605</v>
+        <v>71.82348386020583</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577739</v>
+        <v>27.83777164577731</v>
       </c>
       <c r="T10" t="n">
-        <v>6.82511876552706</v>
+        <v>6.82511876552704</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013282</v>
+        <v>0.08712917573013254</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,19 +31838,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>530.5785304507792</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>465.217062384076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>150.2061940096332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
-        <v>499.3768644016574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>518.0009690113193</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>121.2219182534624</v>
       </c>
       <c r="L3" t="n">
-        <v>245.548359657229</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,7 +34860,7 @@
         <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043501</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
         <v>213.1601163458916</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496884</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>238.3094620181793</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223231</v>
+        <v>121.1944791223222</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079133</v>
+        <v>232.8901363079119</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717268</v>
+        <v>326.1953145717251</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210313</v>
+        <v>394.9444693210294</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402475</v>
+        <v>405.9954962402456</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668053</v>
+        <v>369.9000735668035</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314826</v>
+        <v>280.851659031481</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816775</v>
+        <v>162.2485595816763</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527806</v>
+        <v>8.106799326527124</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528077063</v>
+        <v>53.17467528077009</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914179</v>
+        <v>434.2934940039955</v>
       </c>
       <c r="L9" t="n">
-        <v>275.145495244864</v>
+        <v>275.1454952448627</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693587</v>
+        <v>340.6342072693572</v>
       </c>
       <c r="N9" t="n">
-        <v>364.203967930644</v>
+        <v>364.2039679306425</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615038</v>
+        <v>310.7312400615024</v>
       </c>
       <c r="P9" t="n">
-        <v>475.2993863686498</v>
+        <v>420.9114370919141</v>
       </c>
       <c r="Q9" t="n">
-        <v>313.3097579225269</v>
+        <v>103.232470186677</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886757</v>
+        <v>19.57475315886722</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792998</v>
+        <v>163.3156524792992</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420812</v>
+        <v>265.0751152420805</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809536</v>
+        <v>289.9786064809529</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901161</v>
+        <v>288.5730748901153</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893903</v>
+        <v>250.3658652893896</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171743</v>
+        <v>190.4729849171738</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334769</v>
+        <v>47.59576302334729</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>57.65947400496672</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>388.4444965287609</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>322.6208179396315</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>18.86448192629984</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
-        <v>368.035152318324</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>393.2623022991504</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>386.659256927986</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
